--- a/biology/Zoologie/Galerie_des_Lasiocampidae/Galerie_des_Lasiocampidae.xlsx
+++ b/biology/Zoologie/Galerie_des_Lasiocampidae/Galerie_des_Lasiocampidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Galerie d'identification visuelle des Lasiocampidae.</t>
@@ -511,7 +523,9 @@
           <t>Eriogaster</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Eriogaster lanestris Imago
@@ -544,7 +558,9 @@
           <t>Euthrix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			 Euthrix potatoria  (Linnaeus, 1758) mâle
@@ -576,7 +592,9 @@
           <t>Gastropacha</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Gastropacha (Gastropacha) quercifolia  (Linnaeus, 1758)
@@ -608,7 +626,9 @@
           <t>Lasiocampa</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Lasiocampa (Lasiocampa) quercus
@@ -640,7 +660,9 @@
           <t>Macrothylacia</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Macrothylacia rubi
@@ -672,7 +694,9 @@
           <t>Malacosoma</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Malacosoma (Clisiocampa) castrense
@@ -705,7 +729,9 @@
           <t>Poecilocampa</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Poecilocampa populi
